--- a/ViewMonitor/wwwroot/Reporte Historico Monitor.xlsx
+++ b/ViewMonitor/wwwroot/Reporte Historico Monitor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="26">
   <si>
     <t xml:space="preserve">Monitor</t>
   </si>
@@ -32,13 +32,34 @@
     <t xml:space="preserve">Monitor Interfaces PRIMDCUA Generadas</t>
   </si>
   <si>
+    <t xml:space="preserve">rzerzerzerzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_iiiiii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monitor Respaldo Diario BD</t>
   </si>
   <si>
     <t xml:space="preserve">Procesos Interbloqueo Mayor 5 segundos</t>
   </si>
   <si>
+    <t xml:space="preserve">aaaaaaaa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Archivo de distribución publicados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klklk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_oiyiuoouiouio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfs</t>
   </si>
   <si>
     <t xml:space="preserve">Interfaces cargadas para conciliación.</t>
@@ -159,7 +180,7 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -190,9 +211,11 @@
         <v>44136.333342592596</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
@@ -205,9 +228,11 @@
         <v>44105.33334186343</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
@@ -220,13 +245,15 @@
         <v>36526</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>44064.333347604166</v>
@@ -235,13 +262,15 @@
         <v>36526</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>44062.88195802084</v>
@@ -252,11 +281,13 @@
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>44062.347232789354</v>
@@ -267,11 +298,13 @@
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>44061.91668028935</v>
@@ -282,11 +315,13 @@
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>44061.88195552083</v>
@@ -295,13 +330,15 @@
         <v>44061.8958462963</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>44061.67361770834</v>
@@ -310,13 +347,15 @@
         <v>44061.68056435185</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>44061.64585219907</v>
@@ -331,7 +370,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>44061.61111686342</v>
@@ -346,7 +385,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>44061.354177546295</v>
@@ -361,7 +400,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>44060.916691087965</v>
@@ -376,7 +415,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>44060.881956481484</v>
@@ -391,7 +430,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>44060.54169189815</v>
@@ -406,7 +445,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>44060.43752318287</v>
@@ -421,7 +460,7 @@
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>44060.347234375</v>
@@ -436,7 +475,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>44059.88195216435</v>
@@ -451,7 +490,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
         <v>44059.45139887732</v>
@@ -466,7 +505,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>44059.33334201389</v>
@@ -481,7 +520,7 @@
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>44058.51389806713</v>
@@ -496,7 +535,7 @@
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>44058.45836701389</v>
@@ -511,7 +550,7 @@
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>44058.10417719907</v>
@@ -526,7 +565,7 @@
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>44057.854180092596</v>
@@ -541,7 +580,7 @@
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>44057.833359641205</v>
@@ -556,7 +595,7 @@
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
         <v>44057.79862364583</v>
@@ -571,7 +610,7 @@
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
         <v>44057.71528877315</v>
@@ -586,7 +625,7 @@
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>44057.67362253472</v>
@@ -601,7 +640,7 @@
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
         <v>44057.64585512732</v>
@@ -616,7 +655,7 @@
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>44057.60417962963</v>
@@ -631,7 +670,7 @@
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
         <v>44057.333373298614</v>
@@ -646,7 +685,7 @@
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
         <v>44056.97919644676</v>
@@ -661,7 +700,7 @@
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>44056.965297256946</v>
@@ -676,7 +715,7 @@
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1">
         <v>44056.618069097225</v>
@@ -691,7 +730,7 @@
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
         <v>44056.56252303241</v>
@@ -706,7 +745,7 @@
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>44056.51389606482</v>
@@ -721,7 +760,7 @@
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1">
         <v>44056.47919259259</v>
@@ -736,7 +775,7 @@
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>44056.347233333334</v>
@@ -751,7 +790,7 @@
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1">
         <v>44055.96529008102</v>
@@ -766,7 +805,7 @@
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
         <v>44055.78473387731</v>
@@ -781,7 +820,7 @@
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1">
         <v>44055.77087141204</v>
@@ -796,7 +835,7 @@
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>44055.75057928241</v>
@@ -811,7 +850,7 @@
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1">
         <v>44055.687885300926</v>
@@ -826,7 +865,7 @@
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
         <v>44055.67362696759</v>
@@ -841,7 +880,7 @@
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1">
         <v>44055.65973746528</v>
@@ -856,7 +895,7 @@
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1">
         <v>44055.65973564815</v>
@@ -871,7 +910,7 @@
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1">
         <v>44055.63206693287</v>
@@ -886,7 +925,7 @@
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
         <v>44055.34723521991</v>
@@ -901,7 +940,7 @@
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1">
         <v>44054.96528946759</v>
@@ -916,7 +955,7 @@
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1">
         <v>44054.70836921296</v>
@@ -931,7 +970,7 @@
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
         <v>44054.576396875</v>
@@ -946,7 +985,7 @@
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
         <v>44054.562524189816</v>
@@ -961,7 +1000,7 @@
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1">
         <v>44054.520859375</v>
@@ -976,7 +1015,7 @@
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1">
         <v>44054.43752619213</v>
@@ -991,7 +1030,7 @@
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1">
         <v>44054.34028877315</v>
@@ -1006,7 +1045,7 @@
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>44054.09029552084</v>
@@ -1021,7 +1060,7 @@
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1">
         <v>44053.97920431713</v>
@@ -1036,7 +1075,7 @@
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1">
         <v>44053.965561770834</v>
@@ -1051,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1">
         <v>44053.47919232639</v>
@@ -1066,7 +1105,7 @@
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1">
         <v>44053.33334895833</v>
@@ -1081,7 +1120,7 @@
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1">
         <v>44053.194458715276</v>
@@ -1096,7 +1135,7 @@
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1">
         <v>44052.97919479167</v>
@@ -1111,7 +1150,7 @@
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1">
         <v>44052.96529209491</v>
@@ -1126,7 +1165,7 @@
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1">
         <v>44051.96528892361</v>
@@ -1141,7 +1180,7 @@
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1">
         <v>44050.979194907406</v>
@@ -1156,7 +1195,7 @@
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1">
         <v>44050.96529429398</v>
@@ -1171,7 +1210,7 @@
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <v>44050.937521493055</v>
@@ -1186,7 +1225,7 @@
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1">
         <v>44050.708355208335</v>
@@ -1201,7 +1240,7 @@
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
         <v>44050.34028819444</v>
@@ -1216,7 +1255,7 @@
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
         <v>44049.979199884256</v>
@@ -1231,7 +1270,7 @@
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1">
         <v>44049.96532820602</v>
@@ -1246,7 +1285,7 @@
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
         <v>44049.750017094906</v>
@@ -1261,7 +1300,7 @@
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1">
         <v>44049.70840335648</v>
@@ -1276,7 +1315,7 @@
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>44049.54180011574</v>
@@ -1291,7 +1330,7 @@
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1">
         <v>44049.34028950232</v>
@@ -1306,7 +1345,7 @@
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
         <v>44048.97918672454</v>
@@ -1321,7 +1360,7 @@
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1">
         <v>44048.9652909375</v>
@@ -1336,7 +1375,7 @@
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C79" s="1">
         <v>44048.60418758102</v>
@@ -1351,7 +1390,7 @@
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1">
         <v>44047.96528541666</v>
@@ -1366,7 +1405,7 @@
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1">
         <v>44047.680560266206</v>
@@ -1381,7 +1420,7 @@
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1">
         <v>44047.36111936343</v>
@@ -1396,7 +1435,7 @@
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1">
         <v>44047.33334892361</v>
@@ -1411,7 +1450,7 @@
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1">
         <v>44046.97920181713</v>
@@ -1426,7 +1465,7 @@
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1">
         <v>44046.96528831019</v>
@@ -1441,7 +1480,7 @@
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C86" s="1">
         <v>44046.39587896991</v>
@@ -1456,7 +1495,7 @@
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1">
         <v>44046.333342858794</v>
@@ -1471,7 +1510,7 @@
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1">
         <v>44046.19455957176</v>
@@ -1486,7 +1525,7 @@
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C89" s="1">
         <v>44045.97918865741</v>
@@ -1501,7 +1540,7 @@
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1">
         <v>44045.96529359954</v>
@@ -1516,7 +1555,7 @@
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1">
         <v>44044.96528966435</v>
@@ -1531,7 +1570,7 @@
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1">
         <v>44044.33337086806</v>
@@ -1546,7 +1585,7 @@
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1">
         <v>44043.9652880787</v>
@@ -1561,7 +1600,7 @@
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C94" s="1">
         <v>44043.79168487268</v>
@@ -1576,7 +1615,7 @@
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C95" s="1">
         <v>44043.77084791667</v>
@@ -1591,7 +1630,7 @@
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C96" s="1">
         <v>44043.755871215275</v>
@@ -1606,7 +1645,7 @@
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C97" s="1">
         <v>44043.687522569446</v>
@@ -1621,7 +1660,7 @@
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C98" s="1">
         <v>44042.979191701386</v>
@@ -1636,7 +1675,7 @@
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1">
         <v>44042.96528834491</v>
@@ -1651,7 +1690,7 @@
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C100" s="1">
         <v>44042.770852395835</v>
@@ -1666,7 +1705,7 @@
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1">
         <v>44042.5381997338</v>
@@ -1681,7 +1720,7 @@
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1">
         <v>44041.96528622685</v>
@@ -1696,7 +1735,7 @@
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1">
         <v>44040.96528993056</v>
@@ -1711,7 +1750,7 @@
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C104" s="1">
         <v>44039.96528927083</v>
@@ -1726,7 +1765,7 @@
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C105" s="1">
         <v>44039.70835744213</v>
@@ -1741,7 +1780,7 @@
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1">
         <v>44039.67362326389</v>
@@ -1756,7 +1795,7 @@
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C107" s="1">
         <v>44039.25003703704</v>
@@ -1771,7 +1810,7 @@
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C108" s="1">
         <v>44038.97223908565</v>
@@ -1786,7 +1825,7 @@
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C109" s="1">
         <v>44037.96528538194</v>
@@ -1801,7 +1840,7 @@
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1">
         <v>44036.965291898145</v>
@@ -1816,7 +1855,7 @@
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C111" s="1">
         <v>44036.347233333334</v>
@@ -1831,7 +1870,7 @@
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1">
         <v>44035.97918449074</v>
@@ -1846,7 +1885,7 @@
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1">
         <v>44035.96529042824</v>
@@ -1861,7 +1900,7 @@
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1">
         <v>44035.770849189816</v>
@@ -1876,7 +1915,7 @@
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C115" s="1">
         <v>44035.34029140046</v>
@@ -1891,7 +1930,7 @@
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
         <v>44034.965289733795</v>
@@ -1906,7 +1945,7 @@
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1">
         <v>44034.71528888889</v>
@@ -1921,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C118" s="1">
         <v>44034.60418495371</v>
@@ -1936,7 +1975,7 @@
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1">
         <v>44033.96529019676</v>
@@ -1951,7 +1990,7 @@
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1">
         <v>44033.770859027776</v>
@@ -1966,7 +2005,7 @@
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1">
         <v>44033.201447453706</v>
@@ -1981,7 +2020,7 @@
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122" s="1">
         <v>44032.965284143516</v>
@@ -1996,7 +2035,7 @@
     </row>
     <row r="123">
       <c r="B123" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1">
         <v>44032.66667380787</v>
@@ -2011,7 +2050,7 @@
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1">
         <v>44032.33334012731</v>
@@ -2026,7 +2065,7 @@
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1">
         <v>44032.18753290509</v>
@@ -2041,7 +2080,7 @@
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1">
         <v>44031.97223252315</v>
@@ -2056,7 +2095,7 @@
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C127" s="1">
         <v>44030.97223452546</v>
@@ -2071,7 +2110,7 @@
     </row>
     <row r="128">
       <c r="B128" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1">
         <v>44029.96528784722</v>
@@ -2086,7 +2125,7 @@
     </row>
     <row r="129">
       <c r="B129" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C129" s="1">
         <v>44029.729168287035</v>
@@ -2101,7 +2140,7 @@
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C130" s="1">
         <v>44028.9652834838</v>
@@ -2116,7 +2155,7 @@
     </row>
     <row r="131">
       <c r="B131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C131" s="1">
         <v>44028.93752225694</v>
@@ -2131,7 +2170,7 @@
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C132" s="1">
         <v>44028.50002453704</v>
@@ -2146,7 +2185,7 @@
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C133" s="1">
         <v>44028.201409340276</v>
@@ -2161,7 +2200,7 @@
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C134" s="1">
         <v>44027.965287997686</v>
@@ -2176,7 +2215,7 @@
     </row>
     <row r="135">
       <c r="B135" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1">
         <v>44027.72719189815</v>
@@ -2191,7 +2230,7 @@
     </row>
     <row r="136">
       <c r="B136" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C136" s="1">
         <v>44027.67362361111</v>
@@ -2206,7 +2245,7 @@
     </row>
     <row r="137">
       <c r="B137" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C137" s="1">
         <v>44027.32639633102</v>
@@ -2221,7 +2260,7 @@
     </row>
     <row r="138">
       <c r="B138" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C138" s="1">
         <v>44026.52779424768</v>
@@ -2236,7 +2275,7 @@
     </row>
     <row r="139">
       <c r="B139" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1">
         <v>44026.34028098379</v>
@@ -2251,7 +2290,7 @@
     </row>
     <row r="140">
       <c r="B140" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C140" s="1">
         <v>44025.659724108795</v>
@@ -2266,7 +2305,7 @@
     </row>
     <row r="141">
       <c r="B141" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1">
         <v>44025.35417453704</v>
@@ -2281,7 +2320,7 @@
     </row>
     <row r="142">
       <c r="B142" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C142" s="1">
         <v>44022.35417496528</v>
@@ -2296,7 +2335,7 @@
     </row>
     <row r="143">
       <c r="B143" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C143" s="1">
         <v>44021.70139239584</v>
@@ -2311,7 +2350,7 @@
     </row>
     <row r="144">
       <c r="B144" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1">
         <v>44021.68750922454</v>
@@ -2326,7 +2365,7 @@
     </row>
     <row r="145">
       <c r="B145" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C145" s="1">
         <v>44021.34723533565</v>
@@ -2341,7 +2380,7 @@
     </row>
     <row r="146">
       <c r="B146" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146" s="1">
         <v>44020.34722989584</v>
@@ -2356,7 +2395,7 @@
     </row>
     <row r="147">
       <c r="B147" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C147" s="1">
         <v>44019.6736224537</v>
@@ -2371,7 +2410,7 @@
     </row>
     <row r="148">
       <c r="B148" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C148" s="1">
         <v>44019.35418255787</v>
@@ -2386,7 +2425,7 @@
     </row>
     <row r="149">
       <c r="B149" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C149" s="1">
         <v>44018.38195084491</v>
@@ -2401,7 +2440,7 @@
     </row>
     <row r="150">
       <c r="B150" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C150" s="1">
         <v>44015.70140211806</v>
@@ -2416,7 +2455,7 @@
     </row>
     <row r="151">
       <c r="B151" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C151" s="1">
         <v>44014.69445350694</v>
@@ -2431,7 +2470,7 @@
     </row>
     <row r="152">
       <c r="B152" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C152" s="1">
         <v>44014.36112584491</v>
@@ -2446,7 +2485,7 @@
     </row>
     <row r="153">
       <c r="B153" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C153" s="1">
         <v>44013.67362353009</v>
@@ -2461,7 +2500,7 @@
     </row>
     <row r="154">
       <c r="B154" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C154" s="1">
         <v>44013.35417369213</v>
@@ -2476,7 +2515,7 @@
     </row>
     <row r="155">
       <c r="B155" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C155" s="1">
         <v>44013.33337346065</v>
@@ -2491,7 +2530,7 @@
     </row>
     <row r="156">
       <c r="B156" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C156" s="1">
         <v>44012.34723105324</v>
@@ -2506,7 +2545,7 @@
     </row>
     <row r="157">
       <c r="B157" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C157" s="1">
         <v>44008.347226736114</v>
@@ -2521,7 +2560,7 @@
     </row>
     <row r="158">
       <c r="B158" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C158" s="1">
         <v>44007.3333465625</v>
@@ -2536,7 +2575,7 @@
     </row>
     <row r="159">
       <c r="B159" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C159" s="1">
         <v>44005.67362045139</v>
@@ -2551,7 +2590,7 @@
     </row>
     <row r="160">
       <c r="B160" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C160" s="1">
         <v>44004.562504166664</v>
@@ -2566,7 +2605,7 @@
     </row>
     <row r="161">
       <c r="B161" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C161" s="1">
         <v>44000.34028098379</v>
@@ -2581,7 +2620,7 @@
     </row>
     <row r="162">
       <c r="B162" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C162" s="1">
         <v>43999.645838344906</v>
@@ -2596,7 +2635,7 @@
     </row>
     <row r="163">
       <c r="B163" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C163" s="1">
         <v>43999.34723194444</v>
@@ -2608,816 +2647,6 @@
         <v>0</v>
       </c>
       <c r="F163" s="2"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="1">
-        <v>43998.67362461806</v>
-      </c>
-      <c r="D164" s="1">
-        <v>43998.68056246528</v>
-      </c>
-      <c r="E164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="1">
-        <v>43998.34722978009</v>
-      </c>
-      <c r="D165" s="1">
-        <v>43998.35417719907</v>
-      </c>
-      <c r="E165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="1">
-        <v>43993.34723503472</v>
-      </c>
-      <c r="D166" s="1">
-        <v>43993.354175810186</v>
-      </c>
-      <c r="E166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="1">
-        <v>43992.36111767361</v>
-      </c>
-      <c r="D167" s="1">
-        <v>43992.36806635417</v>
-      </c>
-      <c r="E167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="1">
-        <v>43991.68056327546</v>
-      </c>
-      <c r="D168" s="1">
-        <v>43991.70139328704</v>
-      </c>
-      <c r="E168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="1">
-        <v>43991.354175775465</v>
-      </c>
-      <c r="D169" s="1">
-        <v>43991.361125</v>
-      </c>
-      <c r="E169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170">
-      <c r="B170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="1">
-        <v>43990.354174768516</v>
-      </c>
-      <c r="D170" s="1">
-        <v>43990.36112141204</v>
-      </c>
-      <c r="E170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="1">
-        <v>43987.354171875</v>
-      </c>
-      <c r="D171" s="1">
-        <v>43987.36111527778</v>
-      </c>
-      <c r="E171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172">
-      <c r="B172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="1">
-        <v>43986.361115625</v>
-      </c>
-      <c r="D172" s="1">
-        <v>43986.368063657406</v>
-      </c>
-      <c r="E172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173">
-      <c r="B173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="1">
-        <v>43985.67361686342</v>
-      </c>
-      <c r="D173" s="1">
-        <v>43985.68056454861</v>
-      </c>
-      <c r="E173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174">
-      <c r="B174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="1">
-        <v>43985.354180752314</v>
-      </c>
-      <c r="D174" s="1">
-        <v>43985.36112083333</v>
-      </c>
-      <c r="E174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="1">
-        <v>43984.3541712963</v>
-      </c>
-      <c r="D175" s="1">
-        <v>43984.36111883102</v>
-      </c>
-      <c r="E175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" s="1">
-        <v>43983.33336747685</v>
-      </c>
-      <c r="D176" s="1">
-        <v>44012.333842708336</v>
-      </c>
-      <c r="E176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177">
-      <c r="B177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="1">
-        <v>43980.80556855324</v>
-      </c>
-      <c r="D177" s="1">
-        <v>43980.81250640046</v>
-      </c>
-      <c r="E177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178">
-      <c r="B178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="1">
-        <v>43979.368058761575</v>
-      </c>
-      <c r="D178" s="1">
-        <v>43979.38196099537</v>
-      </c>
-      <c r="E178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="1">
-        <v>43979.35417241898</v>
-      </c>
-      <c r="D179" s="1">
-        <v>43979.361119560184</v>
-      </c>
-      <c r="E179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="1">
-        <v>43978.34723530093</v>
-      </c>
-      <c r="D180" s="1">
-        <v>43978.35417056713</v>
-      </c>
-      <c r="E180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="1">
-        <v>43976.36112094908</v>
-      </c>
-      <c r="D181" s="1">
-        <v>43976.3680690625</v>
-      </c>
-      <c r="E181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="1">
-        <v>43973.35417133102</v>
-      </c>
-      <c r="D182" s="1">
-        <v>43973.361124386574</v>
-      </c>
-      <c r="E182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183">
-      <c r="B183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="1">
-        <v>43972.34028217592</v>
-      </c>
-      <c r="D183" s="1">
-        <v>43972.34722959491</v>
-      </c>
-      <c r="E183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="1">
-        <v>43972.33336616898</v>
-      </c>
-      <c r="D184" s="1">
-        <v>43976.47836832176</v>
-      </c>
-      <c r="E184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="1">
-        <v>43971.48612422454</v>
-      </c>
-      <c r="D185" s="1">
-        <v>43971.48959201389</v>
-      </c>
-      <c r="E185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="1">
-        <v>43971.34723642361</v>
-      </c>
-      <c r="D186" s="1">
-        <v>43971.354181400464</v>
-      </c>
-      <c r="E186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="1">
-        <v>43971.33419328704</v>
-      </c>
-      <c r="D187" s="1">
-        <v>43973.33403784722</v>
-      </c>
-      <c r="E187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="1">
-        <v>43970.770845983796</v>
-      </c>
-      <c r="D188" s="1">
-        <v>43970.777785335646</v>
-      </c>
-      <c r="E188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189">
-      <c r="B189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="1">
-        <v>43970.451400694445</v>
-      </c>
-      <c r="D189" s="1">
-        <v>43970.45834290509</v>
-      </c>
-      <c r="E189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F189" s="2"/>
-    </row>
-    <row r="190">
-      <c r="B190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="1">
-        <v>43970.3472272338</v>
-      </c>
-      <c r="D190" s="1">
-        <v>43970.354172604166</v>
-      </c>
-      <c r="E190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="1">
-        <v>43969.36111547454</v>
-      </c>
-      <c r="D191" s="1">
-        <v>43969.36806342593</v>
-      </c>
-      <c r="E191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192">
-      <c r="B192" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" s="1">
-        <v>43968.33336736111</v>
-      </c>
-      <c r="D192" s="1">
-        <v>43971.33336319445</v>
-      </c>
-      <c r="E192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F192" s="2"/>
-    </row>
-    <row r="193">
-      <c r="B193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="1">
-        <v>43966.368064386574</v>
-      </c>
-      <c r="D193" s="1">
-        <v>43966.375015011574</v>
-      </c>
-      <c r="E193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194">
-      <c r="B194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="1">
-        <v>43965.65973607639</v>
-      </c>
-      <c r="D194" s="1">
-        <v>43965.666674155094</v>
-      </c>
-      <c r="E194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195">
-      <c r="B195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="1">
-        <v>43965.381950497685</v>
-      </c>
-      <c r="D195" s="1">
-        <v>43965.388899502315</v>
-      </c>
-      <c r="E195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F195" s="2"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" s="1">
-        <v>43964.50695185185</v>
-      </c>
-      <c r="D196" s="1">
-        <v>43964.513907291665</v>
-      </c>
-      <c r="E196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="1">
-        <v>43963.8055665162</v>
-      </c>
-      <c r="D197" s="1">
-        <v>43963.81945038195</v>
-      </c>
-      <c r="E197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198">
-      <c r="B198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="1">
-        <v>43962.35417653935</v>
-      </c>
-      <c r="D198" s="1">
-        <v>43962.36806311343</v>
-      </c>
-      <c r="E198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F198" s="2"/>
-    </row>
-    <row r="199">
-      <c r="B199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="1">
-        <v>43959.44445011574</v>
-      </c>
-      <c r="D199" s="1">
-        <v>43959.46528283565</v>
-      </c>
-      <c r="E199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F199" s="2"/>
-    </row>
-    <row r="200">
-      <c r="B200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="1">
-        <v>43959.34723422454</v>
-      </c>
-      <c r="D200" s="1">
-        <v>43959.361120104164</v>
-      </c>
-      <c r="E200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201">
-      <c r="B201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="1">
-        <v>43958.326392476854</v>
-      </c>
-      <c r="D201" s="1">
-        <v>43958.34028105324</v>
-      </c>
-      <c r="E201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F201" s="2"/>
-    </row>
-    <row r="202">
-      <c r="B202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="1">
-        <v>43956.48611493056</v>
-      </c>
-      <c r="D202" s="1">
-        <v>43956.50000980324</v>
-      </c>
-      <c r="E202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203">
-      <c r="B203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="1">
-        <v>43956.36112167824</v>
-      </c>
-      <c r="D203" s="1">
-        <v>43956.368060532404</v>
-      </c>
-      <c r="E203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204">
-      <c r="B204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="1">
-        <v>43955.354178622685</v>
-      </c>
-      <c r="D204" s="1">
-        <v>43955.361117280096</v>
-      </c>
-      <c r="E204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F204" s="2"/>
-    </row>
-    <row r="205">
-      <c r="B205" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="1">
-        <v>43952.33336203704</v>
-      </c>
-      <c r="D205" s="1">
-        <v>43980.33388854167</v>
-      </c>
-      <c r="E205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="1">
-        <v>43951.802087731485</v>
-      </c>
-      <c r="D206" s="1">
-        <v>43951.80903445602</v>
-      </c>
-      <c r="E206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F206" s="2"/>
-    </row>
-    <row r="207">
-      <c r="B207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="1">
-        <v>43951.354177430556</v>
-      </c>
-      <c r="D207" s="1">
-        <v>43951.36111883102</v>
-      </c>
-      <c r="E207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="1">
-        <v>43948.35417832176</v>
-      </c>
-      <c r="D208" s="1">
-        <v>43948.361116168984</v>
-      </c>
-      <c r="E208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F208" s="2"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="1">
-        <v>43945.32639991898</v>
-      </c>
-      <c r="D209" s="1">
-        <v>43945.33334537037</v>
-      </c>
-      <c r="E209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F209" s="2"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="1">
-        <v>43944.32639618056</v>
-      </c>
-      <c r="D210" s="1">
-        <v>43944.33334128472</v>
-      </c>
-      <c r="E210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" s="2"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="1">
-        <v>43943.80556678241</v>
-      </c>
-      <c r="D211" s="1">
-        <v>43943.81250428241</v>
-      </c>
-      <c r="E211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F211" s="2"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="1">
-        <v>43942.62501200232</v>
-      </c>
-      <c r="D212" s="1">
-        <v>43942.631958680555</v>
-      </c>
-      <c r="E212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F212" s="2"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="1">
-        <v>43941.33395324074</v>
-      </c>
-      <c r="D213" s="1">
-        <v>43952.33336134259</v>
-      </c>
-      <c r="E213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F213" s="2"/>
-    </row>
-    <row r="214">
-      <c r="B214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" s="1">
-        <v>43938.35418055556</v>
-      </c>
-      <c r="D214" s="1">
-        <v>43938.361128668985</v>
-      </c>
-      <c r="E214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F214" s="2"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="1">
-        <v>43937.347235416666</v>
-      </c>
-      <c r="D215" s="1">
-        <v>43937.354176851855</v>
-      </c>
-      <c r="E215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F215" s="2"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="1">
-        <v>43936.64585003472</v>
-      </c>
-      <c r="D216" s="1">
-        <v>43936.65973252315</v>
-      </c>
-      <c r="E216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F216" s="2"/>
-    </row>
-    <row r="217">
-      <c r="B217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="1">
-        <v>43936.34723302083</v>
-      </c>
-      <c r="D217" s="1">
-        <v>43936.35417881944</v>
-      </c>
-      <c r="E217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F217" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
